--- a/src/main/resources/Products.xlsx
+++ b/src/main/resources/Products.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\setup\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAM\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8A9F4F-E0FB-4B1D-842A-83E73C88E6AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6782E070-B134-49E6-B3C4-7A12E63D9A97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7425" xr2:uid="{0871692B-978F-4872-ADC7-E361036B1D79}"/>
   </bookViews>
   <sheets>
-    <sheet name="product" sheetId="1" r:id="rId1"/>
-    <sheet name="orginal" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ProductName</t>
   </si>
@@ -56,12 +52,6 @@
   </si>
   <si>
     <t>Samsung Galaxy Tab A8 26.69 cm (10.5 inch) Display, RAM 4 GB, ROM 64 GB Expandable, Wi-Fi Tablet, Silver, (SM-X200NZSEINU)</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>pen</t>
   </si>
 </sst>
 </file>
@@ -142,7 +132,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -154,7 +144,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -171,9 +161,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -201,14 +191,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -236,6 +243,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -387,163 +411,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791D1CCA-C33D-4183-BE2D-99DC1AF5F8D6}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>10999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>-3456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>15999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>-24</v>
-      </c>
-      <c r="E6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>23456</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F23FACF-41DD-4014-B5C4-9CF90C9EB398}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -631,91 +512,7 @@
         <v>15999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>-24</v>
-      </c>
-      <c r="E6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>123</v>
-      </c>
-      <c r="E8">
-        <v>1234</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D27777-4DE6-46AE-B075-9B37F12698BC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA0BC98-843E-4747-AC3E-A7861DD88D12}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD29F751-B6AA-4168-81DD-C2B50BB8E98D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>